--- a/swing_strategy_vix_sim_balanced_20260123.xlsx
+++ b/swing_strategy_vix_sim_balanced_20260123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X44"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,55 +655,55 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>72.33</v>
+        <v>204.38</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>72.17 - 73.04</t>
+          <t>203.06 - 205.51</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>72.61</v>
+        <v>204.28</v>
       </c>
       <c r="F3" t="n">
-        <v>69.36</v>
+        <v>195.08</v>
       </c>
       <c r="G3" t="n">
-        <v>75</v>
+        <v>211.02</v>
       </c>
       <c r="H3" t="n">
-        <v>80.84999999999999</v>
+        <v>77.47</v>
       </c>
       <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>250106129</v>
+      </c>
+      <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" t="n">
-        <v>-0.28</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-0.26</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="N3" t="n">
-        <v>208361696</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.19</v>
-      </c>
       <c r="P3" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>32110376960</v>
+        <v>51116691456</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -712,20 +712,20 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>资金明确派发，禁止交易</t>
+          <t>资金结构恶化，仅观察</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>21.54</v>
+        <v>31.85</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>派发阶段</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -747,55 +747,55 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>COCO</t>
+          <t>TPB</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>52.22</v>
+        <v>118.19</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>52.54 - 53.17</t>
+          <t>116.62 - 118.04</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>52.86</v>
+        <v>117.33</v>
       </c>
       <c r="F4" t="n">
-        <v>50.51</v>
+        <v>112.01</v>
       </c>
       <c r="G4" t="n">
-        <v>55.72</v>
+        <v>122.84</v>
       </c>
       <c r="H4" t="n">
-        <v>80.11</v>
+        <v>89.7</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.25</v>
       </c>
-      <c r="K4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.24</v>
-      </c>
       <c r="N4" t="n">
-        <v>56948258</v>
+        <v>19070757</v>
       </c>
       <c r="O4" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0.53</v>
+        <v>0.76</v>
       </c>
       <c r="Q4" t="n">
-        <v>2973838080</v>
+        <v>2253972736</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>资金结构恶化，仅观察</t>
+          <t>趋势未启动，仅观察</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>34.6</v>
+        <v>66.81</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>late</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -834,82 +834,82 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ATMU</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>204.38</v>
+        <v>57.64</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>203.06 - 205.51</t>
+          <t>57.17 - 57.86</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>204.28</v>
+        <v>57.51</v>
       </c>
       <c r="F5" t="n">
-        <v>195.08</v>
+        <v>54.92</v>
       </c>
       <c r="G5" t="n">
-        <v>211.02</v>
+        <v>59.41</v>
       </c>
       <c r="H5" t="n">
-        <v>77.47</v>
+        <v>81.62</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.53</v>
+        <v>0.25</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.51</v>
+        <v>0.27</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.09</v>
+        <v>0.11</v>
       </c>
       <c r="M5" t="n">
-        <v>0.13</v>
+        <v>0.72</v>
       </c>
       <c r="N5" t="n">
-        <v>250106129</v>
+        <v>81507839</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8</v>
+        <v>0.57</v>
       </c>
       <c r="Q5" t="n">
-        <v>51116691456</v>
+        <v>4734008320</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>资金结构恶化，仅观察</t>
+          <t>趋势未启动，仅观察</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>31.85</v>
+        <v>56.21</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -931,59 +931,59 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TPB</t>
+          <t>BORR</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>118.19</v>
+        <v>4.38</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>116.62 - 118.04</t>
+          <t>4.36 - 4.41</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>117.33</v>
+        <v>4.38</v>
       </c>
       <c r="F6" t="n">
-        <v>112.01</v>
+        <v>4.13</v>
       </c>
       <c r="G6" t="n">
-        <v>121.23</v>
+        <v>4.64</v>
       </c>
       <c r="H6" t="n">
-        <v>89.7</v>
+        <v>87.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7</v>
+        <v>1.87</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.56</v>
       </c>
       <c r="L6" t="n">
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
       <c r="M6" t="n">
-        <v>0.25</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>19070757</v>
+        <v>306872798</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="P6" t="n">
-        <v>0.76</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="Q6" t="n">
-        <v>2253972736</v>
+        <v>1344102912</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -992,11 +992,11 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>66.81</v>
+        <v>37.65</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>late</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1023,59 +1023,59 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SHC</t>
+          <t>GSL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18.9</v>
+        <v>36.29</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>18.89 - 19.12</t>
+          <t>36.11 - 36.55</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>19</v>
+        <v>36.33</v>
       </c>
       <c r="F7" t="n">
-        <v>18.15</v>
+        <v>34.57</v>
       </c>
       <c r="G7" t="n">
-        <v>19.62</v>
+        <v>37.53</v>
       </c>
       <c r="H7" t="n">
-        <v>82.78</v>
+        <v>86.72</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.85</v>
+        <v>0.17</v>
       </c>
       <c r="K7" t="n">
-        <v>1.83</v>
+        <v>0.16</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="M7" t="n">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="N7" t="n">
-        <v>284093929</v>
+        <v>35770652</v>
       </c>
       <c r="O7" t="n">
-        <v>0.78</v>
+        <v>0.48</v>
       </c>
       <c r="P7" t="n">
-        <v>0.86</v>
+        <v>0.17</v>
       </c>
       <c r="Q7" t="n">
-        <v>5369375232</v>
+        <v>1298116992</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1084,11 +1084,11 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>59.84</v>
+        <v>36.93</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1098,76 +1098,76 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>mid</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATMU</t>
+          <t>RES</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>57.64</v>
+        <v>6.52</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>57.17 - 57.86</t>
+          <t>6.46 - 6.53</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>57.51</v>
+        <v>6.49</v>
       </c>
       <c r="F8" t="n">
-        <v>54.92</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>60.16</v>
+        <v>6.71</v>
       </c>
       <c r="H8" t="n">
-        <v>81.62</v>
+        <v>71.05</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.25</v>
+        <v>-0.31</v>
       </c>
       <c r="K8" t="n">
-        <v>0.27</v>
+        <v>-0.33</v>
       </c>
       <c r="L8" t="n">
-        <v>0.11</v>
+        <v>0.32</v>
       </c>
       <c r="M8" t="n">
-        <v>0.72</v>
+        <v>0.04</v>
       </c>
       <c r="N8" t="n">
-        <v>81507839</v>
+        <v>220574475</v>
       </c>
       <c r="O8" t="n">
-        <v>1.04</v>
+        <v>0.43</v>
       </c>
       <c r="P8" t="n">
-        <v>0.57</v>
+        <v>0.03</v>
       </c>
       <c r="Q8" t="n">
-        <v>4734008320</v>
+        <v>1438422016</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>56.21</v>
+        <v>36.72</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1207,59 +1207,59 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HALO</t>
+          <t>LUV</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>71.29000000000001</v>
+        <v>42.44</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>71.02 - 71.88</t>
+          <t>42.49 - 43.00</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>71.45</v>
+        <v>42.74</v>
       </c>
       <c r="F9" t="n">
-        <v>68.23999999999999</v>
+        <v>40.83</v>
       </c>
       <c r="G9" t="n">
-        <v>75.34999999999999</v>
+        <v>44.14</v>
       </c>
       <c r="H9" t="n">
-        <v>71.16</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.28</v>
+        <v>-0.19</v>
       </c>
       <c r="K9" t="n">
-        <v>0.36</v>
+        <v>-0.09</v>
       </c>
       <c r="L9" t="n">
-        <v>0.22</v>
+        <v>0.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.24</v>
+        <v>0.04</v>
       </c>
       <c r="N9" t="n">
-        <v>117597000</v>
+        <v>517155080</v>
       </c>
       <c r="O9" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7</v>
+        <v>-0.01</v>
       </c>
       <c r="Q9" t="n">
-        <v>8383490048</v>
+        <v>22288965632</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1268,16 +1268,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>37.73</v>
+        <v>30.57</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>强趋势回撤</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -1299,59 +1299,59 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BORR</t>
+          <t>OSIS</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.38</v>
+        <v>287.46</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.36 - 4.41</t>
+          <t>284.99 - 288.44</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4.38</v>
+        <v>286.72</v>
       </c>
       <c r="F10" t="n">
-        <v>4.13</v>
+        <v>273.78</v>
       </c>
       <c r="G10" t="n">
-        <v>4.58</v>
+        <v>296.21</v>
       </c>
       <c r="H10" t="n">
-        <v>87.5</v>
+        <v>82.69</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>1.87</v>
+        <v>0.15</v>
       </c>
       <c r="K10" t="n">
-        <v>1.56</v>
+        <v>0.12</v>
       </c>
       <c r="L10" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="M10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="N10" t="n">
-        <v>306872798</v>
+        <v>16977873</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6</v>
+        <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="Q10" t="n">
-        <v>1344102912</v>
+        <v>4880458752</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>37.65</v>
+        <v>29.64</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>mid</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -1386,73 +1386,73 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GSL</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>36.29</v>
+        <v>330.84</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>72.39 - 37.38</t>
+          <t>329.31 - 333.28</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>72.39</v>
+        <v>331.3</v>
       </c>
       <c r="F11" t="n">
-        <v>66.59999999999999</v>
+        <v>316.41</v>
       </c>
       <c r="G11" t="n">
-        <v>73.59</v>
+        <v>342.22</v>
       </c>
       <c r="H11" t="n">
-        <v>86.72</v>
+        <v>87.87</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="K11" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="L11" t="n">
         <v>0.16</v>
       </c>
-      <c r="L11" t="n">
-        <v>0.1</v>
-      </c>
       <c r="M11" t="n">
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="N11" t="n">
-        <v>35770652</v>
+        <v>5407000000</v>
       </c>
       <c r="O11" t="n">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
       <c r="P11" t="n">
-        <v>0.17</v>
+        <v>0.32</v>
       </c>
       <c r="Q11" t="n">
-        <v>1298116992</v>
+        <v>3993845366784</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>趋势未启动，仅观察</t>
+          <t>量价支持不足</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>36.93</v>
+        <v>52.27</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -1483,77 +1483,77 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RES</t>
+          <t>AER</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.52</v>
+        <v>143.97</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.46 - 6.53</t>
+          <t>142.46 - 144.19</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6.49</v>
+        <v>143.33</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>136.85</v>
       </c>
       <c r="G12" t="n">
-        <v>6.71</v>
+        <v>148.08</v>
       </c>
       <c r="H12" t="n">
-        <v>71.05</v>
+        <v>80.2</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.31</v>
+        <v>2.24</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.33</v>
+        <v>2.58</v>
       </c>
       <c r="L12" t="n">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="M12" t="n">
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
       <c r="N12" t="n">
-        <v>220574475</v>
+        <v>170211910</v>
       </c>
       <c r="O12" t="n">
-        <v>0.43</v>
+        <v>0.89</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>1438422016</v>
+        <v>25671256064</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>趋势未启动，仅观察</t>
+          <t>阶段不明，仅观察</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>36.72</v>
+        <v>64.56999999999999</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -1575,77 +1575,77 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>REVG</t>
+          <t>NYT</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>68.95</v>
+        <v>71.26000000000001</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>68.70 - 69.53</t>
+          <t>70.79 - 71.64</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>69.12</v>
+        <v>71.22</v>
       </c>
       <c r="F13" t="n">
-        <v>65.76000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>71.40000000000001</v>
+        <v>73.56999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>87.95999999999999</v>
+        <v>79.20999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.31</v>
+        <v>0.27</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.27</v>
+        <v>0.28</v>
       </c>
       <c r="L13" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="N13" t="n">
-        <v>48806145</v>
+        <v>161568285</v>
       </c>
       <c r="O13" t="n">
-        <v>1.06</v>
+        <v>0.99</v>
       </c>
       <c r="P13" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>3365183488</v>
+        <v>11602468864</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>趋势未启动，仅观察</t>
+          <t>阶段不明，仅观察</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>33.76</v>
+        <v>61.27</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -1667,77 +1667,77 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>OSIS</t>
+          <t>CVNA</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>287.46</v>
+        <v>478.45</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>284.99 - 288.44</t>
+          <t>470.35 - 476.09</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>286.72</v>
+        <v>473.22</v>
       </c>
       <c r="F14" t="n">
-        <v>273.78</v>
+        <v>435.36</v>
       </c>
       <c r="G14" t="n">
-        <v>301.99</v>
+        <v>495.53</v>
       </c>
       <c r="H14" t="n">
-        <v>82.69</v>
+        <v>89.15000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>0.15</v>
+        <v>0.78</v>
       </c>
       <c r="K14" t="n">
-        <v>0.12</v>
+        <v>0.61</v>
       </c>
       <c r="L14" t="n">
-        <v>0.12</v>
+        <v>0.55</v>
       </c>
       <c r="M14" t="n">
-        <v>0.18</v>
+        <v>0.68</v>
       </c>
       <c r="N14" t="n">
-        <v>16977873</v>
+        <v>116947000</v>
       </c>
       <c r="O14" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>0.74</v>
+        <v>0.09</v>
       </c>
       <c r="Q14" t="n">
-        <v>4880458752</v>
+        <v>103729610752</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>趋势未启动，仅观察</t>
+          <t>阶段不明，仅观察</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>31.12</v>
+        <v>49.94</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -1747,80 +1747,80 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LUV</t>
+          <t>BMY</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>42.44</v>
+        <v>54.94</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>42.49 - 43.00</t>
+          <t>54.57 - 55.22</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>42.74</v>
+        <v>54.89</v>
       </c>
       <c r="F15" t="n">
-        <v>40.83</v>
+        <v>52.42</v>
       </c>
       <c r="G15" t="n">
-        <v>44.86</v>
+        <v>56.7</v>
       </c>
       <c r="H15" t="n">
-        <v>72.65000000000001</v>
+        <v>59.49</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.19</v>
+        <v>0.82</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="M15" t="n">
-        <v>0.04</v>
+        <v>0.34</v>
       </c>
       <c r="N15" t="n">
-        <v>517155080</v>
+        <v>2035753027</v>
       </c>
       <c r="O15" t="n">
-        <v>1.02</v>
+        <v>0.82</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.01</v>
+        <v>0.89</v>
       </c>
       <c r="Q15" t="n">
-        <v>22288965632</v>
+        <v>111801524224</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>趋势未启动，仅观察</t>
+          <t>阶段不明，仅观察</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>30.57</v>
+        <v>45.47</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1839,80 +1839,80 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>TDC</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>330.84</v>
+        <v>29.91</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>329.31 - 333.28</t>
+          <t>29.66 - 30.02</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>331.3</v>
+        <v>29.84</v>
       </c>
       <c r="F16" t="n">
-        <v>316.41</v>
+        <v>28.49</v>
       </c>
       <c r="G16" t="n">
-        <v>346.5</v>
+        <v>31.49</v>
       </c>
       <c r="H16" t="n">
-        <v>87.87</v>
+        <v>68.09</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="K16" t="n">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="L16" t="n">
-        <v>0.16</v>
+        <v>-0.06</v>
       </c>
       <c r="M16" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N16" t="n">
-        <v>5407000000</v>
+        <v>93200000</v>
       </c>
       <c r="O16" t="n">
-        <v>0.61</v>
+        <v>1.06</v>
       </c>
       <c r="P16" t="n">
-        <v>0.32</v>
+        <v>0.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>3993845366784</v>
+        <v>2826494976</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>量价支持不足</t>
+          <t>阶段不明，仅观察</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>52.27</v>
+        <v>42.75</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1921,12 +1921,12 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mid</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -1943,59 +1943,59 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AER</t>
+          <t>GCT</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>143.97</v>
+        <v>40.51</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>142.46 - 144.19</t>
+          <t>40.48 - 40.97</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>143.33</v>
+        <v>40.72</v>
       </c>
       <c r="F17" t="n">
-        <v>136.85</v>
+        <v>38.42</v>
       </c>
       <c r="G17" t="n">
-        <v>148.08</v>
+        <v>42.06</v>
       </c>
       <c r="H17" t="n">
-        <v>80.2</v>
+        <v>90.2</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.24</v>
+        <v>-0.09</v>
       </c>
       <c r="K17" t="n">
-        <v>2.58</v>
+        <v>0.01</v>
       </c>
       <c r="L17" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="N17" t="n">
-        <v>170211910</v>
+        <v>28980012</v>
       </c>
       <c r="O17" t="n">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.02</v>
+        <v>0.72</v>
       </c>
       <c r="Q17" t="n">
-        <v>25671256064</v>
+        <v>1525852160</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2004,16 +2004,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>64.56999999999999</v>
+        <v>39.99</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -2035,59 +2035,59 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NYT</t>
+          <t>MTRN</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>71.26000000000001</v>
+        <v>148.78</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>70.79 - 71.64</t>
+          <t>149.04 - 150.83</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>71.22</v>
+        <v>149.94</v>
       </c>
       <c r="F18" t="n">
-        <v>68.01000000000001</v>
+        <v>143.24</v>
       </c>
       <c r="G18" t="n">
-        <v>74.75</v>
+        <v>154.85</v>
       </c>
       <c r="H18" t="n">
-        <v>79.20999999999999</v>
+        <v>82.53</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
       <c r="K18" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="M18" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="N18" t="n">
-        <v>161568285</v>
+        <v>20732741</v>
       </c>
       <c r="O18" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="Q18" t="n">
-        <v>11602468864</v>
+        <v>3084616960</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2096,16 +2096,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>61.27</v>
+        <v>32.95</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -2127,59 +2127,59 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SEE</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>41.8</v>
+        <v>65.03</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>41.54 - 42.05</t>
+          <t>64.94 - 65.72</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>41.8</v>
+        <v>65.33</v>
       </c>
       <c r="F19" t="n">
-        <v>39.92</v>
+        <v>62.4</v>
       </c>
       <c r="G19" t="n">
-        <v>43.18</v>
+        <v>67.48</v>
       </c>
       <c r="H19" t="n">
-        <v>74.03</v>
+        <v>79.13</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.78</v>
+        <v>-0.28</v>
       </c>
       <c r="K19" t="n">
-        <v>1.75</v>
+        <v>-0.26</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="N19" t="n">
-        <v>147124524</v>
+        <v>235581025</v>
       </c>
       <c r="O19" t="n">
-        <v>1.02</v>
+        <v>0.63</v>
       </c>
       <c r="P19" t="n">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>6149805056</v>
+        <v>30623451136</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2188,16 +2188,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>60.24</v>
+        <v>26.3</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -2219,59 +2219,59 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SXI</t>
+          <t>REGN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>247.74</v>
+        <v>755.51</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>248.08 - 251.05</t>
+          <t>751.62 - 760.68</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>249.56</v>
+        <v>756.15</v>
       </c>
       <c r="F20" t="n">
-        <v>238.41</v>
+        <v>714.79</v>
       </c>
       <c r="G20" t="n">
-        <v>257.74</v>
+        <v>781.08</v>
       </c>
       <c r="H20" t="n">
-        <v>78.77</v>
+        <v>71.76000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>6.6</v>
+        <v>0.09</v>
       </c>
       <c r="K20" t="n">
-        <v>6.61</v>
+        <v>0.18</v>
       </c>
       <c r="L20" t="n">
-        <v>0.27</v>
+        <v>0.01</v>
       </c>
       <c r="M20" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="N20" t="n">
-        <v>12116999</v>
+        <v>103282318</v>
       </c>
       <c r="O20" t="n">
-        <v>1.04</v>
+        <v>0.9</v>
       </c>
       <c r="P20" t="n">
-        <v>0.21</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q20" t="n">
-        <v>3001865472</v>
+        <v>80074571776</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>55.62</v>
+        <v>23.17</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -2299,89 +2299,89 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>NEM</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>64.44</v>
+        <v>121.69</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>64.00 - 64.78</t>
+          <t>120.60 - 122.06</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>64.39</v>
+        <v>121.33</v>
       </c>
       <c r="F21" t="n">
-        <v>61.49</v>
+        <v>111.62</v>
       </c>
       <c r="G21" t="n">
-        <v>66.52</v>
+        <v>125.35</v>
       </c>
       <c r="H21" t="n">
-        <v>70.90000000000001</v>
+        <v>95.15000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>0.41</v>
+        <v>0.99</v>
       </c>
       <c r="K21" t="n">
-        <v>0.48</v>
+        <v>1.08</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="M21" t="n">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="N21" t="n">
-        <v>111765032</v>
+        <v>1091262981</v>
       </c>
       <c r="O21" t="n">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="P21" t="n">
-        <v>-1.08</v>
+        <v>1.01</v>
       </c>
       <c r="Q21" t="n">
-        <v>7202139136</v>
+        <v>133692309504</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>阶段不明，小仓试探</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>54.2</v>
+        <v>100</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -2398,82 +2398,82 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PLUS</t>
+          <t>CDE</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>89.09999999999999</v>
+        <v>25.77</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>88.76 - 89.83</t>
+          <t>25.12 - 25.42</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>89.29000000000001</v>
+        <v>25.27</v>
       </c>
       <c r="F22" t="n">
-        <v>84.94</v>
+        <v>23.25</v>
       </c>
       <c r="G22" t="n">
-        <v>93.61</v>
+        <v>27.1</v>
       </c>
       <c r="H22" t="n">
-        <v>69.54000000000001</v>
+        <v>97.63</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>0.11</v>
+        <v>4.47</v>
       </c>
       <c r="K22" t="n">
-        <v>0.13</v>
+        <v>2.42</v>
       </c>
       <c r="L22" t="n">
-        <v>0.23</v>
+        <v>0.77</v>
       </c>
       <c r="M22" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="N22" t="n">
-        <v>26438876</v>
+        <v>642106588</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P22" t="n">
-        <v>2.27</v>
+        <v>0.33</v>
       </c>
       <c r="Q22" t="n">
-        <v>2372338688</v>
+        <v>16539986944</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>阶段不明，小仓试探</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>53.6</v>
+        <v>100</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>底部试探</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>多头拥挤</t>
         </is>
       </c>
     </row>
@@ -2495,77 +2495,77 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>BCO</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478.45</v>
+        <v>125.67</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>470.35 - 476.09</t>
+          <t>125.32 - 126.83</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>473.22</v>
+        <v>126.08</v>
       </c>
       <c r="F23" t="n">
-        <v>435.36</v>
+        <v>120.42</v>
       </c>
       <c r="G23" t="n">
-        <v>489.01</v>
+        <v>130.23</v>
       </c>
       <c r="H23" t="n">
-        <v>89.15000000000001</v>
+        <v>76.48</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>0.78</v>
+        <v>0.26</v>
       </c>
       <c r="K23" t="n">
-        <v>0.61</v>
+        <v>0.33</v>
       </c>
       <c r="L23" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="M23" t="n">
-        <v>0.68</v>
+        <v>0.44</v>
       </c>
       <c r="N23" t="n">
-        <v>116947000</v>
+        <v>41545506</v>
       </c>
       <c r="O23" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>0.09</v>
+        <v>0.62</v>
       </c>
       <c r="Q23" t="n">
-        <v>103729610752</v>
+        <v>5235699712</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>阶段不明，小仓试探</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>49.94</v>
+        <v>100</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -2575,89 +2575,89 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BMY</t>
+          <t>ROL</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>54.94</v>
+        <v>63.32</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>54.57 - 55.22</t>
+          <t>62.97 - 63.73</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>54.89</v>
+        <v>63.35</v>
       </c>
       <c r="F24" t="n">
-        <v>52.42</v>
+        <v>60.5</v>
       </c>
       <c r="G24" t="n">
-        <v>56.7</v>
+        <v>65.44</v>
       </c>
       <c r="H24" t="n">
-        <v>59.49</v>
+        <v>72.29000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>0.82</v>
+        <v>0.19</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="L24" t="n">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="M24" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="N24" t="n">
-        <v>2035753027</v>
+        <v>481150554</v>
       </c>
       <c r="O24" t="n">
-        <v>0.82</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P24" t="n">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="Q24" t="n">
-        <v>111801524224</v>
+        <v>30466453504</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>阶段不明，小仓试探</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>47.75</v>
+        <v>97.04000000000001</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -2679,77 +2679,75 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TDC</t>
+          <t>DBRG</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>29.91</v>
+        <v>15.37</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>29.66 - 30.02</t>
+          <t>15.27 - 15.45</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.84</v>
+        <v>15.36</v>
       </c>
       <c r="F25" t="n">
-        <v>28.49</v>
+        <v>14.67</v>
       </c>
       <c r="G25" t="n">
-        <v>30.83</v>
+        <v>15.87</v>
       </c>
       <c r="H25" t="n">
-        <v>68.09</v>
+        <v>78.79000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.27</v>
-      </c>
+        <v>1.28</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>-0.06</v>
+        <v>-0.95</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6899999999999999</v>
+        <v>-0.02</v>
       </c>
       <c r="N25" t="n">
-        <v>93200000</v>
+        <v>182669899</v>
       </c>
       <c r="O25" t="n">
-        <v>1.06</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P25" t="n">
-        <v>0.9</v>
+        <v>-0.39</v>
       </c>
       <c r="Q25" t="n">
-        <v>2826494976</v>
+        <v>2998914560</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>阶段不明，小仓试探</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>44.88</v>
+        <v>75.43000000000001</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -2759,67 +2757,67 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GCT</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>40.51</v>
+        <v>253.73</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>40.48 - 40.97</t>
+          <t>250.69 - 253.73</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>40.72</v>
+        <v>252.21</v>
       </c>
       <c r="F26" t="n">
-        <v>38.42</v>
+        <v>232.03</v>
       </c>
       <c r="G26" t="n">
-        <v>42.06</v>
+        <v>270.86</v>
       </c>
       <c r="H26" t="n">
-        <v>90.2</v>
+        <v>95.45</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.09</v>
+        <v>0.61</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01</v>
+        <v>0.6</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1</v>
+        <v>0.36</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="N26" t="n">
-        <v>28980012</v>
+        <v>1628041540</v>
       </c>
       <c r="O26" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="P26" t="n">
-        <v>0.72</v>
+        <v>0.51</v>
       </c>
       <c r="Q26" t="n">
-        <v>1525852160</v>
+        <v>413082976256</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2828,20 +2826,20 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>非趋势结构，仅观察</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>41.99</v>
+        <v>33.89</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>高位放量分歧</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -2851,67 +2849,67 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CSGS</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>79.83</v>
+        <v>178.18</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>79.53 - 80.49</t>
+          <t>177.31 - 179.45</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>80.01000000000001</v>
+        <v>178.38</v>
       </c>
       <c r="F27" t="n">
-        <v>76.42</v>
+        <v>169.82</v>
       </c>
       <c r="G27" t="n">
-        <v>82.64</v>
+        <v>186.18</v>
       </c>
       <c r="H27" t="n">
-        <v>80.09</v>
+        <v>30.08</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="K27" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="L27" t="n">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
       <c r="M27" t="n">
-        <v>0.29</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N27" t="n">
-        <v>28520509</v>
+        <v>2873130000</v>
       </c>
       <c r="O27" t="n">
-        <v>1.06</v>
+        <v>0.45</v>
       </c>
       <c r="P27" t="n">
-        <v>1.28</v>
+        <v>-0.46</v>
       </c>
       <c r="Q27" t="n">
-        <v>2276792320</v>
+        <v>511934267392</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2920,30 +2918,30 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>非趋势结构，仅观察</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>36.02</v>
+        <v>9.26</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>派发阶段</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>downtrend</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>distribution</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -2955,1557 +2953,87 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RPRX</t>
+          <t>AMTM</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>40.11</v>
+        <v>35.56</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>39.58 - 40.06</t>
+          <t>35.29 - 35.71</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>39.82</v>
+        <v>35.5</v>
       </c>
       <c r="F28" t="n">
-        <v>38.02</v>
+        <v>33.83</v>
       </c>
       <c r="G28" t="n">
-        <v>44.78</v>
+        <v>37.27</v>
       </c>
       <c r="H28" t="n">
-        <v>71.87</v>
+        <v>85.61</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.47</v>
+        <v>0.54</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.45</v>
+        <v>-0.43</v>
       </c>
       <c r="L28" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="M28" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="N28" t="n">
-        <v>427247489</v>
+        <v>243712062</v>
       </c>
       <c r="O28" t="n">
-        <v>0.82</v>
+        <v>1.01</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>23391121408</v>
+        <v>8666401792</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>高位阶段或趋势停滞，风险偏大</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>34.72</v>
+        <v>70.75</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>late</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
           <t>机构偏多</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>49.94</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>49.88 - 50.48</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>50.18</v>
-      </c>
-      <c r="F29" t="n">
-        <v>47.93</v>
-      </c>
-      <c r="G29" t="n">
-        <v>51.83</v>
-      </c>
-      <c r="H29" t="n">
-        <v>71.13</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N29" t="n">
-        <v>112488952</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="P29" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5617698304</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>阶段不明，仅观察</t>
-        </is>
-      </c>
-      <c r="T29" t="n">
-        <v>33.65</v>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>极度缩量(隐蔽吸筹)</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>uptrend</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>防御性对冲</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>MTRN</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>148.78</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>149.04 - 150.83</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>149.94</v>
-      </c>
-      <c r="F30" t="n">
-        <v>143.24</v>
-      </c>
-      <c r="G30" t="n">
-        <v>157.95</v>
-      </c>
-      <c r="H30" t="n">
-        <v>82.53</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N30" t="n">
-        <v>20732741</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3084616960</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Basic Materials</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>阶段不明，仅观察</t>
-        </is>
-      </c>
-      <c r="T30" t="n">
-        <v>32.95</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>量价中性</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>防御性对冲</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>REGN</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>755.51</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>751.62 - 760.68</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>756.15</v>
-      </c>
-      <c r="F31" t="n">
-        <v>714.79</v>
-      </c>
-      <c r="G31" t="n">
-        <v>781.08</v>
-      </c>
-      <c r="H31" t="n">
-        <v>71.76000000000001</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="N31" t="n">
-        <v>103282318</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>80074571776</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>阶段不明，仅观察</t>
-        </is>
-      </c>
-      <c r="T31" t="n">
-        <v>24.33</v>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>量价中性</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>trend_pullback</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>防御性对冲</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>NEM</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>121.69</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>120.60 - 122.06</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>121.33</v>
-      </c>
-      <c r="F32" t="n">
-        <v>111.62</v>
-      </c>
-      <c r="G32" t="n">
-        <v>125.35</v>
-      </c>
-      <c r="H32" t="n">
-        <v>95.15000000000001</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1091262981</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>133692309504</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Basic Materials</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>阶段不明，小仓试探</t>
-        </is>
-      </c>
-      <c r="T32" t="n">
-        <v>100</v>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>明确吸筹</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>中性</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>ALNT</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>63.75</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>63.69 - 64.45</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>64.06999999999999</v>
-      </c>
-      <c r="F33" t="n">
-        <v>58.94</v>
-      </c>
-      <c r="G33" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>91.94</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N33" t="n">
-        <v>16943497</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1080147840</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>阶段不明，小仓试探</t>
-        </is>
-      </c>
-      <c r="T33" t="n">
-        <v>100</v>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>明确吸筹</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>中性</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>CDE</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>25.77</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>25.12 - 25.42</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>25.27</v>
-      </c>
-      <c r="F34" t="n">
-        <v>23.25</v>
-      </c>
-      <c r="G34" t="n">
-        <v>26.12</v>
-      </c>
-      <c r="H34" t="n">
-        <v>97.63</v>
-      </c>
-      <c r="I34" t="n">
-        <v>4</v>
-      </c>
-      <c r="J34" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N34" t="n">
-        <v>642106588</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>16539986944</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Basic Materials</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>阶段不明，小仓试探</t>
-        </is>
-      </c>
-      <c r="T34" t="n">
-        <v>100</v>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>明确吸筹</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>多头拥挤</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>BCO</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>125.67</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>125.32 - 126.83</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>126.08</v>
-      </c>
-      <c r="F35" t="n">
-        <v>120.42</v>
-      </c>
-      <c r="G35" t="n">
-        <v>130.23</v>
-      </c>
-      <c r="H35" t="n">
-        <v>76.48</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="N35" t="n">
-        <v>41545506</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5235699712</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>阶段不明，小仓试探</t>
-        </is>
-      </c>
-      <c r="T35" t="n">
-        <v>100</v>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>极度缩量(隐蔽吸筹)</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>机构偏多</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>ROL</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>63.32</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>62.97 - 63.73</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>63.35</v>
-      </c>
-      <c r="F36" t="n">
-        <v>60.5</v>
-      </c>
-      <c r="G36" t="n">
-        <v>66.09</v>
-      </c>
-      <c r="H36" t="n">
-        <v>72.29000000000001</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="N36" t="n">
-        <v>481150554</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>30466453504</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>阶段不明，小仓试探</t>
-        </is>
-      </c>
-      <c r="T36" t="n">
-        <v>97.04000000000001</v>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>明确吸筹</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>机构偏多</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>DVAX</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>15.65</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>15.57 - 15.76</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="F37" t="n">
-        <v>14.96</v>
-      </c>
-      <c r="G37" t="n">
-        <v>16.18</v>
-      </c>
-      <c r="H37" t="n">
-        <v>81.70999999999999</v>
-      </c>
-      <c r="I37" t="n">
-        <v>5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="M37" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="N37" t="n">
-        <v>113684064</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1837700736</v>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>阶段不明，小仓试探</t>
-        </is>
-      </c>
-      <c r="T37" t="n">
-        <v>90.84</v>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>极度缩量(隐蔽吸筹)</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>防御性对冲</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>DBRG</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>15.37</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>15.27 - 15.45</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>15.36</v>
-      </c>
-      <c r="F38" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="G38" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="H38" t="n">
-        <v>78.79000000000001</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="M38" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="N38" t="n">
-        <v>182669899</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="P38" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2998914560</v>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Financial Services</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>阶段不明，小仓试探</t>
-        </is>
-      </c>
-      <c r="T38" t="n">
-        <v>75.43000000000001</v>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>极度缩量(隐蔽吸筹)</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>机构偏多</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>INVX</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>25.47 - 25.78</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>25.63</v>
-      </c>
-      <c r="F39" t="n">
-        <v>23.58</v>
-      </c>
-      <c r="G39" t="n">
-        <v>26.48</v>
-      </c>
-      <c r="H39" t="n">
-        <v>85.92</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3</v>
-      </c>
-      <c r="J39" t="n">
-        <v>-0.52</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-0.71</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N39" t="n">
-        <v>68927791</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1779026304</v>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>Energy</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>阶段不明，小仓试探</t>
-        </is>
-      </c>
-      <c r="T39" t="n">
-        <v>70.65000000000001</v>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>明确吸筹</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>防御性对冲</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>OTTR</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>88.93000000000001</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>88.65 - 89.72</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>89.18000000000001</v>
-      </c>
-      <c r="F40" t="n">
-        <v>85.18000000000001</v>
-      </c>
-      <c r="G40" t="n">
-        <v>92.11</v>
-      </c>
-      <c r="H40" t="n">
-        <v>65.58</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2</v>
-      </c>
-      <c r="J40" t="n">
-        <v>-0.08</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-0.08</v>
-      </c>
-      <c r="L40" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="N40" t="n">
-        <v>41905520</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="P40" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3726657792</v>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>阶段不明，小仓试探</t>
-        </is>
-      </c>
-      <c r="T40" t="n">
-        <v>66.83</v>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>极度缩量(隐蔽吸筹)</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>防御性对冲</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>PAHC</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>41.78 - 42.28</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>42.03</v>
-      </c>
-      <c r="F41" t="n">
-        <v>39.07</v>
-      </c>
-      <c r="G41" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="H41" t="n">
-        <v>87.27</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="N41" t="n">
-        <v>20447574</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="P41" t="n">
-        <v>-1.46</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1686603392</v>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>非趋势结构，仅观察</t>
-        </is>
-      </c>
-      <c r="T41" t="n">
-        <v>48.32</v>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>量价中性</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>range</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>中性</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>253.73</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>250.69 - 253.73</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>252.21</v>
-      </c>
-      <c r="F42" t="n">
-        <v>232.03</v>
-      </c>
-      <c r="G42" t="n">
-        <v>264.77</v>
-      </c>
-      <c r="H42" t="n">
-        <v>95.45</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1628041540</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>413082976256</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>非趋势结构，仅观察</t>
-        </is>
-      </c>
-      <c r="T42" t="n">
-        <v>35.58</v>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>高位放量分歧</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>中性</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>AMTM</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>35.29 - 35.71</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="F43" t="n">
-        <v>33.83</v>
-      </c>
-      <c r="G43" t="n">
-        <v>36.67</v>
-      </c>
-      <c r="H43" t="n">
-        <v>85.61</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-0.43</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N43" t="n">
-        <v>243712062</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>8666401792</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>高位阶段或趋势停滞，风险偏大</t>
-        </is>
-      </c>
-      <c r="T43" t="n">
-        <v>70.75</v>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>明确吸筹</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>late</t>
-        </is>
-      </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>机构偏多</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>ADEA</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>19.91</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>19.82 - 20.06</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>19.94</v>
-      </c>
-      <c r="F44" t="n">
-        <v>18.56</v>
-      </c>
-      <c r="G44" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="H44" t="n">
-        <v>84.95999999999999</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>-0.54</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-0.53</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="N44" t="n">
-        <v>109510191</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2180347904</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>高位阶段或趋势停滞，风险偏大</t>
-        </is>
-      </c>
-      <c r="T44" t="n">
-        <v>28.74</v>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>量价中性</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>late</t>
-        </is>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>防御性对冲</t>
         </is>
       </c>
     </row>
